--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsp80\Documents\FIN 450\Recital Automation 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792B0D4C-E98F-4B68-8A0D-7B0B81B66F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +44,63 @@
     <t>Solo Performances and Teacher Duets (Style 1)</t>
   </si>
   <si>
+    <t>Please choose the number of performers:</t>
+  </si>
+  <si>
+    <t>1. Performer Information</t>
+  </si>
+  <si>
+    <t>1. Performer Information First name</t>
+  </si>
+  <si>
+    <t>1. Performer Information Last name</t>
+  </si>
+  <si>
+    <t>1. Song 1</t>
+  </si>
+  <si>
+    <t>1. Song1 Length</t>
+  </si>
+  <si>
+    <t>1. Song1 Composer/Arranger</t>
+  </si>
+  <si>
+    <t>1. Song2</t>
+  </si>
+  <si>
+    <t>1. Song2 Length</t>
+  </si>
+  <si>
+    <t>1. Song2 Composer/Arranger</t>
+  </si>
+  <si>
+    <t>2. Performer Information</t>
+  </si>
+  <si>
+    <t>2. Performer Information First name</t>
+  </si>
+  <si>
+    <t>2. Performer Information Last name</t>
+  </si>
+  <si>
+    <t>2. Song 1</t>
+  </si>
+  <si>
+    <t>2. Song 1 Length</t>
+  </si>
+  <si>
+    <t>2. Song1 Composer/Arranger</t>
+  </si>
+  <si>
+    <t>2. Song 2</t>
+  </si>
+  <si>
+    <t>2. Song2 Length</t>
+  </si>
+  <si>
+    <t>2. Song2 Composer/Arranger</t>
+  </si>
+  <si>
     <t>Justin (Test) Powley (Test)</t>
   </si>
   <si>
@@ -78,33 +117,60 @@
   </si>
   <si>
     <t>1: First Name: Joseph, Last Name: Wardy, Song1 Title: Man In The Mirror, Song1 Length (minutes): 2, Song1 Composer/Arr.: Michael Jackson, Song2 Title: Can't Live Can't Die, Song2 Length (minutes): 3, Song2 Composer/Arr.: Edgy Artist #5, Song3 Title: Blips and Bloops, Song3 Length (minutes): 1:30, Song3 Composer/Arr.: Comma, Separated, Values, 2: First Name: Noseph, Last Name: Swardy, Song1 Title: Can in the career, Song1 Length (minutes): 3, Song1 Composer/Arr.: Not Jackson / Not Justin, Song2 Title: Less songs here, Song2 Length (minutes): 0.5, Song2 Composer/Arr.: Not a composer, 3: First Name: Finn, Last Name: Flynn, Song1 Title: Can't stop you now, Song1 Length (minutes): 1.2, Song1 Composer/Arr.: King</t>
+  </si>
+  <si>
+    <t>Justin Powley</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Powley</t>
+  </si>
+  <si>
+    <t>Golden Slumbers</t>
+  </si>
+  <si>
+    <t>The Beatles</t>
+  </si>
+  <si>
+    <t>Memory Lane</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Penny Lane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\-mmm\-yy\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="d-mmm-yy h:mm AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,26 +193,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -436,19 +493,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,35 +533,147 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>16941419</v>
       </c>
       <c r="B2" s="1">
-        <v>45463.505706019001</v>
+        <v>45463.505706019</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -41,109 +41,37 @@
     <t>other_phone</t>
   </si>
   <si>
-    <t>Solo Performances and Teacher Duets (Style 1)</t>
-  </si>
-  <si>
-    <t>Please choose the number of performers:</t>
-  </si>
-  <si>
-    <t>1. Performer Information</t>
-  </si>
-  <si>
-    <t>1. Performer Information First name</t>
-  </si>
-  <si>
-    <t>1. Performer Information Last name</t>
-  </si>
-  <si>
-    <t>1. Song 1</t>
-  </si>
-  <si>
-    <t>1. Song1 Length</t>
-  </si>
-  <si>
-    <t>1. Song1 Composer/Arranger</t>
-  </si>
-  <si>
-    <t>1. Song2</t>
-  </si>
-  <si>
-    <t>1. Song2 Length</t>
-  </si>
-  <si>
-    <t>1. Song2 Composer/Arranger</t>
-  </si>
-  <si>
-    <t>2. Performer Information</t>
-  </si>
-  <si>
-    <t>2. Performer Information First name</t>
-  </si>
-  <si>
-    <t>2. Performer Information Last name</t>
-  </si>
-  <si>
-    <t>2. Song 1</t>
-  </si>
-  <si>
-    <t>2. Song 1 Length</t>
-  </si>
-  <si>
-    <t>2. Song1 Composer/Arranger</t>
-  </si>
-  <si>
-    <t>2. Song 2</t>
-  </si>
-  <si>
-    <t>2. Song2 Length</t>
-  </si>
-  <si>
-    <t>2. Song2 Composer/Arranger</t>
-  </si>
-  <si>
-    <t>Justin (Test) Powley (Test)</t>
-  </si>
-  <si>
-    <t>Justin (Test)</t>
-  </si>
-  <si>
-    <t>Powley (Test)</t>
-  </si>
-  <si>
-    <t>jpowley@ualberta.ca</t>
+    <t>Solo Performances and Teacher Duets</t>
+  </si>
+  <si>
+    <t>Bands / Multi-Student Duets (2 Song Max):</t>
+  </si>
+  <si>
+    <t>Justin Powley</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Powley</t>
+  </si>
+  <si>
+    <t>powleyjustin@gmail.com</t>
   </si>
   <si>
     <t>587-590-4107</t>
   </si>
   <si>
-    <t>1: First Name: Joseph, Last Name: Wardy, Song1 Title: Man In The Mirror, Song1 Length (minutes): 2, Song1 Composer/Arr.: Michael Jackson, Song2 Title: Can't Live Can't Die, Song2 Length (minutes): 3, Song2 Composer/Arr.: Edgy Artist #5, Song3 Title: Blips and Bloops, Song3 Length (minutes): 1:30, Song3 Composer/Arr.: Comma, Separated, Values, 2: First Name: Noseph, Last Name: Swardy, Song1 Title: Can in the career, Song1 Length (minutes): 3, Song1 Composer/Arr.: Not Jackson / Not Justin, Song2 Title: Less songs here, Song2 Length (minutes): 0.5, Song2 Composer/Arr.: Not a composer, 3: First Name: Finn, Last Name: Flynn, Song1 Title: Can't stop you now, Song1 Length (minutes): 1.2, Song1 Composer/Arr.: King</t>
-  </si>
-  <si>
-    <t>Justin Powley</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Powley</t>
-  </si>
-  <si>
-    <t>Golden Slumbers</t>
-  </si>
-  <si>
-    <t>The Beatles</t>
-  </si>
-  <si>
-    <t>Memory Lane</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Lane</t>
-  </si>
-  <si>
-    <t>Penny Lane</t>
+    <t>1: Performers (Full Names, Comma Separated): Justin Powley, Keith Cole, Fred Dreary, Pam Carlson, 2: Performers (Full Names, Comma Separated): Michael Jackson, Jermaine Jackson, Tito Jackson, Randy Jackson, Marlon Jackson</t>
+  </si>
+  <si>
+    <t>Performers (Full Names, Comma Separated): Ryan, Ashley, Connor</t>
+  </si>
+  <si>
+    <t>Band Name: The Cure, Performers (Full Names, Comma Separated): Robert Smith, Simon Gallup, Gary X, Roger O'Donnell, Positive Comment / Award: Best Band, Song1 Title: Pictures of You, Song1 Length (minutes): 8.5, Song1 Composer/Arr.: The Cure, Song1 Staging/Instruments: Vocals, Guitar, Bass, Piano, Song2 Title: Friday I'm in Love, Song2 Length (minutes): 3, Song2 Composer/Arr.: The Cure, Song2 Staging/Instruments: Vocals, Guitar, Bass, Piano, Second Keyboard</t>
+  </si>
+  <si>
+    <t>First Name: Single, Last Name: Entry, Positive Comment / Award: Yes, Song1 Title: Eleanor Rigby, Song1 Length (minutes): 2, Song1 Composer/Arr.: The Beatles, Song1 Staging/Instruments: Piano Solo</t>
   </si>
 </sst>
 </file>
@@ -497,15 +425,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AB1"/>
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,131 +464,114 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>17158195</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45477.441400463</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="I2"/>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>17158191</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45477.44125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>17150644</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45476.710821759</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>17150639</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45476.710393519</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2">
-        <v>16941419</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45463.505706019</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
+      <c r="J5"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
